--- a/sm_core/Excel_Files/update_account_tags.xlsx
+++ b/sm_core/Excel_Files/update_account_tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sm-core\sm_core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backup\portfolio\sm_core\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EA9BC0-E2FA-4A74-9E1F-CF333DA03C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FA403E-3620-4D08-B8B8-A303348F1FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56C5A45D-2192-4923-8CCD-FA3BF2DD117A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56C5A45D-2192-4923-8CCD-FA3BF2DD117A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Account Number</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>Payout Name</t>
-  </si>
-  <si>
-    <t>Test Advisor</t>
-  </si>
-  <si>
-    <t>Test Payout</t>
   </si>
 </sst>
 </file>
@@ -432,7 +426,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,15 +448,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>230164</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:A1048576 A1 A3:A6">

--- a/sm_core/Excel_Files/update_account_tags.xlsx
+++ b/sm_core/Excel_Files/update_account_tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backup\portfolio\sm_core\Excel_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sm-core\sm_core\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FA403E-3620-4D08-B8B8-A303348F1FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D21EDC3-1F5A-40D0-8680-CC1DA1999706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56C5A45D-2192-4923-8CCD-FA3BF2DD117A}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56C5A45D-2192-4923-8CCD-FA3BF2DD117A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,22 +34,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Account Number</t>
   </si>
   <si>
-    <t>Advisor Name</t>
-  </si>
-  <si>
-    <t>Payout Name</t>
+    <t>AUM Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,12 +58,6 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF00273B"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -97,7 +88,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,32 +414,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2A47B4-3350-4FCC-8CFF-95F8D8B33952}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:A1048576 A1 A3:A6">
